--- a/Code/Results/Cases/Case_2_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_74/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.07915970093459</v>
+        <v>14.96264576182254</v>
       </c>
       <c r="C2">
-        <v>6.520736579871802</v>
+        <v>7.892458382824905</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.317029010541192</v>
+        <v>11.99529766303683</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>34.33031854450154</v>
+        <v>45.82342251323082</v>
       </c>
       <c r="H2">
-        <v>11.96323497349802</v>
+        <v>18.62657270360087</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.66248884396698</v>
+        <v>11.33732425459352</v>
       </c>
       <c r="L2">
-        <v>6.211566100825461</v>
+        <v>10.01407828799498</v>
       </c>
       <c r="M2">
-        <v>10.37578709330054</v>
+        <v>15.37425287799839</v>
       </c>
       <c r="N2">
-        <v>14.62387312463163</v>
+        <v>22.13714351742483</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.30153118303901</v>
+        <v>14.8075288436562</v>
       </c>
       <c r="C3">
-        <v>6.394274149036529</v>
+        <v>7.85420619193022</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.305026949313259</v>
+        <v>12.01620645695606</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>34.04508130357343</v>
+        <v>45.90474952519263</v>
       </c>
       <c r="H3">
-        <v>12.02005233675276</v>
+        <v>18.67759482141792</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.956249355512458</v>
+        <v>11.22762221008536</v>
       </c>
       <c r="L3">
-        <v>6.136135733110247</v>
+        <v>10.022624728623</v>
       </c>
       <c r="M3">
-        <v>10.09163133586964</v>
+        <v>15.35998060302919</v>
       </c>
       <c r="N3">
-        <v>14.85400396465428</v>
+        <v>22.2040121925503</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.80741894753479</v>
+        <v>14.71493774363437</v>
       </c>
       <c r="C4">
-        <v>6.315282268266258</v>
+        <v>7.830169612476418</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.300686050545306</v>
+        <v>12.03045534371482</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>33.90153461375084</v>
+        <v>45.96591837041424</v>
       </c>
       <c r="H4">
-        <v>12.06210951521351</v>
+        <v>18.71172596283878</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.498349300482719</v>
+        <v>11.16220507417197</v>
       </c>
       <c r="L4">
-        <v>6.092181721622987</v>
+        <v>10.02921077590826</v>
       </c>
       <c r="M4">
-        <v>9.918237341321172</v>
+        <v>15.35370321699419</v>
       </c>
       <c r="N4">
-        <v>14.99859769741858</v>
+        <v>22.24702056860994</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.60209283275909</v>
+        <v>14.67791436038873</v>
       </c>
       <c r="C5">
-        <v>6.282764304691628</v>
+        <v>7.820238052235501</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.29966491098603</v>
+        <v>12.03661699158595</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>33.85072356017749</v>
+        <v>45.99366175679815</v>
       </c>
       <c r="H5">
-        <v>12.08098449263893</v>
+        <v>18.72633926518057</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.305616147767822</v>
+        <v>11.13606297237456</v>
       </c>
       <c r="L5">
-        <v>6.07486888162367</v>
+        <v>10.03223167179247</v>
       </c>
       <c r="M5">
-        <v>9.847939629694341</v>
+        <v>15.35177311097317</v>
       </c>
       <c r="N5">
-        <v>15.05837147624074</v>
+        <v>22.26503868610356</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.56776586765584</v>
+        <v>14.67181061863466</v>
       </c>
       <c r="C6">
-        <v>6.277345210667991</v>
+        <v>7.818580733176163</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.299540111879161</v>
+        <v>12.03766158637515</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>33.84274275418789</v>
+        <v>45.99843838191687</v>
       </c>
       <c r="H6">
-        <v>12.08422163539458</v>
+        <v>18.72880833795676</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.273241517752043</v>
+        <v>11.13175405467559</v>
       </c>
       <c r="L6">
-        <v>6.07203039264791</v>
+        <v>10.03275365696837</v>
       </c>
       <c r="M6">
-        <v>9.836291307824709</v>
+        <v>15.35149062474323</v>
       </c>
       <c r="N6">
-        <v>15.06834889522077</v>
+        <v>22.26806032666243</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.80466561185035</v>
+        <v>14.71443551184476</v>
       </c>
       <c r="C7">
-        <v>6.314845034519441</v>
+        <v>7.830036222197495</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.300669269518137</v>
+        <v>12.03053700356123</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>33.90081859268502</v>
+        <v>45.96628113476896</v>
       </c>
       <c r="H7">
-        <v>12.0623571257626</v>
+        <v>18.71192019058354</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.495774915859769</v>
+        <v>11.16185038749588</v>
       </c>
       <c r="L7">
-        <v>6.091945804109512</v>
+        <v>10.02925015159794</v>
       </c>
       <c r="M7">
-        <v>9.917287694953909</v>
+        <v>15.35367464067487</v>
       </c>
       <c r="N7">
-        <v>14.99940035365594</v>
+        <v>22.24726157399562</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.81460317844348</v>
+        <v>14.90863650006781</v>
       </c>
       <c r="C8">
-        <v>6.477416545834306</v>
+        <v>7.879384129599195</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.312253973665799</v>
+        <v>12.00221441939398</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>34.22526175982943</v>
+        <v>45.84912781726491</v>
       </c>
       <c r="H8">
-        <v>11.9812961409138</v>
+        <v>18.64358309232848</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.42399255980615</v>
+        <v>11.29911335073662</v>
       </c>
       <c r="L8">
-        <v>6.185071199584086</v>
+        <v>10.01674758245562</v>
       </c>
       <c r="M8">
-        <v>10.27763935177057</v>
+        <v>15.368817690697</v>
       </c>
       <c r="N8">
-        <v>14.70255284118616</v>
+        <v>22.1597957624118</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.65573104180394</v>
+        <v>15.30861586750744</v>
       </c>
       <c r="C9">
-        <v>6.785216733029534</v>
+        <v>7.971720553096572</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.359606078860356</v>
+        <v>11.95785225617213</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>35.12286313549024</v>
+        <v>45.70885721190077</v>
       </c>
       <c r="H9">
-        <v>11.8823777831264</v>
+        <v>18.53183277409187</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.05339987124514</v>
+        <v>11.58240886615556</v>
       </c>
       <c r="L9">
-        <v>6.386153766797766</v>
+        <v>10.0028291344537</v>
       </c>
       <c r="M9">
-        <v>10.98910953570696</v>
+        <v>15.41809760451979</v>
       </c>
       <c r="N9">
-        <v>14.14548555407141</v>
+        <v>22.0036921912826</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91628136101562</v>
+        <v>15.6115686537961</v>
       </c>
       <c r="C10">
-        <v>7.004328717394981</v>
+        <v>8.036760908424442</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.410235076448418</v>
+        <v>11.93205242686741</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>35.95514525207876</v>
+        <v>45.6607418151185</v>
       </c>
       <c r="H10">
-        <v>11.8508454658679</v>
+        <v>18.46331976626744</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.13684521199928</v>
+        <v>11.7974045524056</v>
       </c>
       <c r="L10">
-        <v>6.544760048296809</v>
+        <v>9.999033826294855</v>
       </c>
       <c r="M10">
-        <v>11.51019644645129</v>
+        <v>15.4660371943395</v>
       </c>
       <c r="N10">
-        <v>13.74991829838267</v>
+        <v>21.89831344412104</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.46884395757071</v>
+        <v>15.75080333677452</v>
       </c>
       <c r="C11">
-        <v>7.102454370234236</v>
+        <v>8.065721491991715</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.436880402319924</v>
+        <v>11.92178555658458</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>36.37385288841097</v>
+        <v>45.65084773933463</v>
       </c>
       <c r="H11">
-        <v>11.84648103163343</v>
+        <v>18.4351066180127</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.60569126762459</v>
+        <v>11.89632018722383</v>
       </c>
       <c r="L11">
-        <v>6.619188369727241</v>
+        <v>9.998695739522651</v>
       </c>
       <c r="M11">
-        <v>11.74607526165011</v>
+        <v>15.49034331093869</v>
       </c>
       <c r="N11">
-        <v>13.57258513745345</v>
+        <v>21.85237691281158</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.67504277474707</v>
+        <v>15.80368515447752</v>
       </c>
       <c r="C12">
-        <v>7.139389406292848</v>
+        <v>8.076596229154772</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.447503957537033</v>
+        <v>11.91810864805767</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>36.5383613956414</v>
+        <v>45.64882922505483</v>
       </c>
       <c r="H12">
-        <v>11.84635466285579</v>
+        <v>18.42484814132583</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.77983375128725</v>
+        <v>11.93390493574449</v>
       </c>
       <c r="L12">
-        <v>6.647692641003856</v>
+        <v>9.99876657031677</v>
       </c>
       <c r="M12">
-        <v>11.83517066937933</v>
+        <v>15.49990175752068</v>
       </c>
       <c r="N12">
-        <v>13.50577927031566</v>
+        <v>21.83526828738458</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.6307700486444</v>
+        <v>15.79228989338956</v>
       </c>
       <c r="C13">
-        <v>7.13144468199502</v>
+        <v>8.074258282166705</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.445192033842188</v>
+        <v>11.91889116133905</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>36.50266392227849</v>
+        <v>45.64918704514159</v>
       </c>
       <c r="H13">
-        <v>11.84631249856023</v>
+        <v>18.42703856809299</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.74247933036034</v>
+        <v>11.92580523082825</v>
       </c>
       <c r="L13">
-        <v>6.641539624409274</v>
+        <v>9.998742484858113</v>
       </c>
       <c r="M13">
-        <v>11.81599331373016</v>
+        <v>15.49782750264106</v>
       </c>
       <c r="N13">
-        <v>13.52015218309348</v>
+        <v>21.83894021041237</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.48586925124897</v>
+        <v>15.75515108669902</v>
       </c>
       <c r="C14">
-        <v>7.105497500196631</v>
+        <v>8.066618017986853</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.437743635916728</v>
+        <v>11.92147883004474</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>36.38726676336202</v>
+        <v>45.65064702438917</v>
       </c>
       <c r="H14">
-        <v>11.84643950810447</v>
+        <v>18.4342541220117</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.62008587694835</v>
+        <v>11.89940993651974</v>
       </c>
       <c r="L14">
-        <v>6.621527063975863</v>
+        <v>9.998697586238803</v>
       </c>
       <c r="M14">
-        <v>11.75341004709549</v>
+        <v>15.49112262016402</v>
       </c>
       <c r="N14">
-        <v>13.56708220881555</v>
+        <v>21.85096363981952</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.39671589853022</v>
+        <v>15.73242149400155</v>
       </c>
       <c r="C15">
-        <v>7.089575092938963</v>
+        <v>8.06192609721136</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.433251173075887</v>
+        <v>11.92309130939119</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>36.31736328785006</v>
+        <v>45.6517664439275</v>
       </c>
       <c r="H15">
-        <v>11.8467188567195</v>
+        <v>18.43872924869184</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.54467533922042</v>
+        <v>11.8832577046442</v>
       </c>
       <c r="L15">
-        <v>6.609310234290209</v>
+        <v>9.998695956737915</v>
       </c>
       <c r="M15">
-        <v>11.71504484986779</v>
+        <v>15.48706166598218</v>
       </c>
       <c r="N15">
-        <v>13.59587242200297</v>
+        <v>21.85836561927105</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.87974592223235</v>
+        <v>15.60249384236804</v>
       </c>
       <c r="C16">
-        <v>6.997884724417454</v>
+        <v>8.034855494473273</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.408567648469415</v>
+        <v>11.93275292990493</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>35.92860484508917</v>
+        <v>45.66163008479305</v>
       </c>
       <c r="H16">
-        <v>11.8513392229486</v>
+        <v>18.46522304077382</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.1057262783116</v>
+        <v>11.79095979800996</v>
       </c>
       <c r="L16">
-        <v>6.539941148381826</v>
+        <v>9.999083793175476</v>
       </c>
       <c r="M16">
-        <v>11.49475249743699</v>
+        <v>15.46449858329707</v>
       </c>
       <c r="N16">
-        <v>13.76155752467792</v>
+        <v>21.90135566521829</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.55721844603926</v>
+        <v>15.52311720419057</v>
       </c>
       <c r="C17">
-        <v>6.941237908631456</v>
+        <v>8.018086711976963</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.394360586356479</v>
+        <v>11.93905614759723</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>35.70052102038353</v>
+        <v>45.67075584427413</v>
       </c>
       <c r="H17">
-        <v>11.8567934292751</v>
+        <v>18.48223300249341</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.83033111397009</v>
+        <v>11.73459992833081</v>
       </c>
       <c r="L17">
-        <v>6.497963211146973</v>
+        <v>9.999676781794077</v>
       </c>
       <c r="M17">
-        <v>11.35926683099939</v>
+        <v>15.45129326054816</v>
       </c>
       <c r="N17">
-        <v>13.86384855023357</v>
+        <v>21.92824027991178</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.36974608371708</v>
+        <v>15.47759834331697</v>
       </c>
       <c r="C18">
-        <v>6.908510184567282</v>
+        <v>8.008382886495582</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.38652839425959</v>
+        <v>11.94281994252124</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>35.57309714355969</v>
+        <v>45.67713352342005</v>
       </c>
       <c r="H18">
-        <v>11.86086418923641</v>
+        <v>18.49229467680406</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.66966686267199</v>
+        <v>11.70228992730211</v>
       </c>
       <c r="L18">
-        <v>6.474033419440846</v>
+        <v>10.00014858975756</v>
       </c>
       <c r="M18">
-        <v>11.28123229197627</v>
+        <v>15.44393336610713</v>
       </c>
       <c r="N18">
-        <v>13.92293135088014</v>
+        <v>21.94389199191644</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.30593570221744</v>
+        <v>15.46221133353774</v>
       </c>
       <c r="C19">
-        <v>6.897404112847711</v>
+        <v>8.005087285888756</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.383934407242493</v>
+        <v>11.94411807235699</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>35.53059417562083</v>
+        <v>45.67948664178802</v>
       </c>
       <c r="H19">
-        <v>11.86240011597767</v>
+        <v>18.49574911765391</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.6148782221943</v>
+        <v>11.69136963535823</v>
       </c>
       <c r="L19">
-        <v>6.465968337093137</v>
+        <v>10.00033081304449</v>
       </c>
       <c r="M19">
-        <v>11.25479474080238</v>
+        <v>15.44148201884819</v>
       </c>
       <c r="N19">
-        <v>13.94297919137179</v>
+        <v>21.94922378516851</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.59175560627055</v>
+        <v>15.53155320283916</v>
       </c>
       <c r="C20">
-        <v>6.947283175583914</v>
+        <v>8.019877883665607</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.39583773219271</v>
+        <v>11.9383708433151</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>35.72440999268605</v>
+        <v>45.66966753801627</v>
       </c>
       <c r="H20">
-        <v>11.8561155423825</v>
+        <v>18.48039348809927</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.85988135604844</v>
+        <v>11.74058872498068</v>
       </c>
       <c r="L20">
-        <v>6.502409659414303</v>
+        <v>9.999600131936106</v>
       </c>
       <c r="M20">
-        <v>11.37370101676263</v>
+        <v>15.4526746557299</v>
       </c>
       <c r="N20">
-        <v>13.85293406792241</v>
+        <v>21.92535887733739</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.52851300003876</v>
+        <v>15.76605577934936</v>
       </c>
       <c r="C21">
-        <v>7.113124858923384</v>
+        <v>8.068864660942422</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.439916819868582</v>
+        <v>11.92071304762772</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>36.42099870784612</v>
+        <v>45.65017126954544</v>
       </c>
       <c r="H21">
-        <v>11.84636003075055</v>
+        <v>18.43212319452939</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.65612760529579</v>
+        <v>11.90715967099558</v>
       </c>
       <c r="L21">
-        <v>6.62739661446666</v>
+        <v>9.998705383829549</v>
       </c>
       <c r="M21">
-        <v>11.77179885219793</v>
+        <v>15.49308243385572</v>
       </c>
       <c r="N21">
-        <v>13.55328856163339</v>
+        <v>21.84742429972882</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.14804507078232</v>
+        <v>15.92020823086661</v>
       </c>
       <c r="C22">
-        <v>7.220213700972026</v>
+        <v>8.100343188280187</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.47184146571097</v>
+        <v>11.91040193432072</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>36.91103808433905</v>
+        <v>45.6475031432892</v>
       </c>
       <c r="H22">
-        <v>11.84892613802731</v>
+        <v>18.40305454602404</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.15673457631634</v>
+        <v>12.01675191721163</v>
       </c>
       <c r="L22">
-        <v>6.71094427703061</v>
+        <v>9.999279284721533</v>
       </c>
       <c r="M22">
-        <v>12.03063574035532</v>
+        <v>15.52155353614052</v>
       </c>
       <c r="N22">
-        <v>13.35945734906832</v>
+        <v>21.79815920166839</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.80733790246672</v>
+        <v>15.83786818006271</v>
       </c>
       <c r="C23">
-        <v>7.163176603014064</v>
+        <v>8.083592281998895</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.454512932244158</v>
+        <v>11.91579282665886</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>36.64625354346035</v>
+        <v>45.64800457417442</v>
       </c>
       <c r="H23">
-        <v>11.84670719042969</v>
+        <v>18.41834206747328</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.89134264507451</v>
+        <v>11.95820450196571</v>
       </c>
       <c r="L23">
-        <v>6.666185344746654</v>
+        <v>9.998867246019204</v>
       </c>
       <c r="M23">
-        <v>11.89262977428321</v>
+        <v>15.50617100558289</v>
       </c>
       <c r="N23">
-        <v>13.46273526801092</v>
+        <v>21.82430052091471</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.57614772857265</v>
+        <v>15.52773892342623</v>
       </c>
       <c r="C24">
-        <v>6.944550610939181</v>
+        <v>8.019068291771074</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.395168870174097</v>
+        <v>11.93868023330046</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>35.71359826371864</v>
+        <v>45.67015603799971</v>
       </c>
       <c r="H24">
-        <v>11.8564191093931</v>
+        <v>18.48122425283951</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.84652897150079</v>
+        <v>11.73788090083235</v>
       </c>
       <c r="L24">
-        <v>6.500398784512464</v>
+        <v>9.999634377567215</v>
       </c>
       <c r="M24">
-        <v>11.36717575916752</v>
+        <v>15.45204940386275</v>
       </c>
       <c r="N24">
-        <v>13.85786764870186</v>
+        <v>21.92666095069559</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.17344189844623</v>
+        <v>15.19862530120621</v>
       </c>
       <c r="C25">
-        <v>6.703166418354805</v>
+        <v>7.947225752049714</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.344073249513311</v>
+        <v>11.96865883064075</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>34.85060154546319</v>
+        <v>45.73718077336151</v>
       </c>
       <c r="H25">
-        <v>11.90225408384725</v>
+        <v>18.55967909661729</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.6327708448292</v>
+        <v>11.50443683217814</v>
       </c>
       <c r="L25">
-        <v>6.329816942417825</v>
+        <v>10.00546266649849</v>
       </c>
       <c r="M25">
-        <v>10.79661890209941</v>
+        <v>15.40268928638534</v>
       </c>
       <c r="N25">
-        <v>14.29366283985431</v>
+        <v>22.04428101818493</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_74/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.96264576182254</v>
+        <v>14.07915970093457</v>
       </c>
       <c r="C2">
-        <v>7.892458382824905</v>
+        <v>6.52073657987181</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.99529766303683</v>
+        <v>7.317029010541247</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>45.82342251323082</v>
+        <v>34.33031854450152</v>
       </c>
       <c r="H2">
-        <v>18.62657270360087</v>
+        <v>11.96323497349796</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.33732425459352</v>
+        <v>10.66248884396698</v>
       </c>
       <c r="L2">
-        <v>10.01407828799498</v>
+        <v>6.211566100825508</v>
       </c>
       <c r="M2">
-        <v>15.37425287799839</v>
+        <v>10.37578709330056</v>
       </c>
       <c r="N2">
-        <v>22.13714351742483</v>
+        <v>14.6238731246316</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.8075288436562</v>
+        <v>13.301531183039</v>
       </c>
       <c r="C3">
-        <v>7.85420619193022</v>
+        <v>6.394274149036653</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.01620645695606</v>
+        <v>7.305026949313259</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>45.90474952519263</v>
+        <v>34.04508130357312</v>
       </c>
       <c r="H3">
-        <v>18.67759482141792</v>
+        <v>12.02005233675276</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.22762221008536</v>
+        <v>9.956249355512496</v>
       </c>
       <c r="L3">
-        <v>10.022624728623</v>
+        <v>6.136135733110247</v>
       </c>
       <c r="M3">
-        <v>15.35998060302919</v>
+        <v>10.09163133586961</v>
       </c>
       <c r="N3">
-        <v>22.2040121925503</v>
+        <v>14.85400396465424</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.71493774363437</v>
+        <v>12.8074189475348</v>
       </c>
       <c r="C4">
-        <v>7.830169612476418</v>
+        <v>6.315282268266128</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.03045534371482</v>
+        <v>7.300686050545304</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>45.96591837041424</v>
+        <v>33.90153461375097</v>
       </c>
       <c r="H4">
-        <v>18.71172596283878</v>
+        <v>12.06210951521357</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.16220507417197</v>
+        <v>9.498349300482724</v>
       </c>
       <c r="L4">
-        <v>10.02921077590826</v>
+        <v>6.092181721623035</v>
       </c>
       <c r="M4">
-        <v>15.35370321699419</v>
+        <v>9.91823734132117</v>
       </c>
       <c r="N4">
-        <v>22.24702056860994</v>
+        <v>14.99859769741861</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.67791436038873</v>
+        <v>12.60209283275915</v>
       </c>
       <c r="C5">
-        <v>7.820238052235501</v>
+        <v>6.282764304691753</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.03661699158595</v>
+        <v>7.299664910986146</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>45.99366175679815</v>
+        <v>33.85072356017776</v>
       </c>
       <c r="H5">
-        <v>18.72633926518057</v>
+        <v>12.08098449263899</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.13606297237456</v>
+        <v>9.305616147767761</v>
       </c>
       <c r="L5">
-        <v>10.03223167179247</v>
+        <v>6.074868881623763</v>
       </c>
       <c r="M5">
-        <v>15.35177311097317</v>
+        <v>9.847939629694427</v>
       </c>
       <c r="N5">
-        <v>22.26503868610356</v>
+        <v>15.0583714762408</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.67181061863466</v>
+        <v>12.56776586765581</v>
       </c>
       <c r="C6">
-        <v>7.818580733176163</v>
+        <v>6.277345210667998</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.03766158637515</v>
+        <v>7.299540111879159</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>45.99843838191687</v>
+        <v>33.84274275418741</v>
       </c>
       <c r="H6">
-        <v>18.72880833795676</v>
+        <v>12.08422163539454</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.13175405467559</v>
+        <v>9.273241517752098</v>
       </c>
       <c r="L6">
-        <v>10.03275365696837</v>
+        <v>6.072030392647914</v>
       </c>
       <c r="M6">
-        <v>15.35149062474323</v>
+        <v>9.836291307824665</v>
       </c>
       <c r="N6">
-        <v>22.26806032666243</v>
+        <v>15.06834889522067</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.71443551184476</v>
+        <v>12.80466561185037</v>
       </c>
       <c r="C7">
-        <v>7.830036222197495</v>
+        <v>6.314845034519309</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.03053700356123</v>
+        <v>7.300669269518015</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>45.96628113476896</v>
+        <v>33.90081859268525</v>
       </c>
       <c r="H7">
-        <v>18.71192019058354</v>
+        <v>12.06235712576261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.16185038749588</v>
+        <v>9.495774915859743</v>
       </c>
       <c r="L7">
-        <v>10.02925015159794</v>
+        <v>6.091945804109564</v>
       </c>
       <c r="M7">
-        <v>15.35367464067487</v>
+        <v>9.917287694953934</v>
       </c>
       <c r="N7">
-        <v>22.24726157399562</v>
+        <v>14.99940035365594</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.90863650006781</v>
+        <v>13.8146031784435</v>
       </c>
       <c r="C8">
-        <v>7.879384129599195</v>
+        <v>6.47741654583456</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.00221441939398</v>
+        <v>7.31225397366574</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>45.84912781726491</v>
+        <v>34.22526175982939</v>
       </c>
       <c r="H8">
-        <v>18.64358309232848</v>
+        <v>11.98129614091368</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.29911335073662</v>
+        <v>10.42399255980617</v>
       </c>
       <c r="L8">
-        <v>10.01674758245562</v>
+        <v>6.185071199583991</v>
       </c>
       <c r="M8">
-        <v>15.368817690697</v>
+        <v>10.27763935177052</v>
       </c>
       <c r="N8">
-        <v>22.1597957624118</v>
+        <v>14.70255284118613</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.30861586750744</v>
+        <v>15.6557310418039</v>
       </c>
       <c r="C9">
-        <v>7.971720553096572</v>
+        <v>6.78521673302967</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.95785225617213</v>
+        <v>7.359606078860345</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>45.70885721190077</v>
+        <v>35.12286313549001</v>
       </c>
       <c r="H9">
-        <v>18.53183277409187</v>
+        <v>11.88237778312634</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.58240886615556</v>
+        <v>12.05339987124519</v>
       </c>
       <c r="L9">
-        <v>10.0028291344537</v>
+        <v>6.386153766797784</v>
       </c>
       <c r="M9">
-        <v>15.41809760451979</v>
+        <v>10.9891095357069</v>
       </c>
       <c r="N9">
-        <v>22.0036921912826</v>
+        <v>14.1454855540714</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.6115686537961</v>
+        <v>16.91628136101562</v>
       </c>
       <c r="C10">
-        <v>8.036760908424442</v>
+        <v>7.004328717394976</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.93205242686741</v>
+        <v>7.410235076448522</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>45.6607418151185</v>
+        <v>35.95514525207854</v>
       </c>
       <c r="H10">
-        <v>18.46331976626744</v>
+        <v>11.85084546586776</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.7974045524056</v>
+        <v>13.13684521199936</v>
       </c>
       <c r="L10">
-        <v>9.999033826294855</v>
+        <v>6.544760048296855</v>
       </c>
       <c r="M10">
-        <v>15.4660371943395</v>
+        <v>11.51019644645129</v>
       </c>
       <c r="N10">
-        <v>21.89831344412104</v>
+        <v>13.74991829838261</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.75080333677452</v>
+        <v>17.46884395757069</v>
       </c>
       <c r="C11">
-        <v>8.065721491991715</v>
+        <v>7.102454370234232</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.92178555658458</v>
+        <v>7.436880402319973</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>45.65084773933463</v>
+        <v>36.37385288841116</v>
       </c>
       <c r="H11">
-        <v>18.4351066180127</v>
+        <v>11.84648103163357</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.89632018722383</v>
+        <v>13.6056912676245</v>
       </c>
       <c r="L11">
-        <v>9.998695739522651</v>
+        <v>6.619188369727253</v>
       </c>
       <c r="M11">
-        <v>15.49034331093869</v>
+        <v>11.74607526165016</v>
       </c>
       <c r="N11">
-        <v>21.85237691281158</v>
+        <v>13.57258513745351</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.80368515447752</v>
+        <v>17.67504277474703</v>
       </c>
       <c r="C12">
-        <v>8.076596229154772</v>
+        <v>7.139389406292977</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.91810864805767</v>
+        <v>7.447503957537083</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>45.64882922505483</v>
+        <v>36.53836139564158</v>
       </c>
       <c r="H12">
-        <v>18.42484814132583</v>
+        <v>11.84635466285573</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.93390493574449</v>
+        <v>13.77983375128721</v>
       </c>
       <c r="L12">
-        <v>9.99876657031677</v>
+        <v>6.647692641003863</v>
       </c>
       <c r="M12">
-        <v>15.49990175752068</v>
+        <v>11.83517066937936</v>
       </c>
       <c r="N12">
-        <v>21.83526828738458</v>
+        <v>13.50577927031563</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.79228989338956</v>
+        <v>17.63077004864442</v>
       </c>
       <c r="C13">
-        <v>8.074258282166705</v>
+        <v>7.131444681994652</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.91889116133905</v>
+        <v>7.44519203384213</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>45.64918704514159</v>
+        <v>36.50266392227878</v>
       </c>
       <c r="H13">
-        <v>18.42703856809299</v>
+        <v>11.84631249856028</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.92580523082825</v>
+        <v>13.74247933036029</v>
       </c>
       <c r="L13">
-        <v>9.998742484858113</v>
+        <v>6.641539624409284</v>
       </c>
       <c r="M13">
-        <v>15.49782750264106</v>
+        <v>11.81599331373018</v>
       </c>
       <c r="N13">
-        <v>21.83894021041237</v>
+        <v>13.52015218309352</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.75515108669902</v>
+        <v>17.48586925124895</v>
       </c>
       <c r="C14">
-        <v>8.066618017986853</v>
+        <v>7.105497500196655</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.92147883004474</v>
+        <v>7.437743635916735</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>45.65064702438917</v>
+        <v>36.38726676336189</v>
       </c>
       <c r="H14">
-        <v>18.4342541220117</v>
+        <v>11.84643950810437</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.89940993651974</v>
+        <v>13.62008587694842</v>
       </c>
       <c r="L14">
-        <v>9.998697586238803</v>
+        <v>6.621527063975856</v>
       </c>
       <c r="M14">
-        <v>15.49112262016402</v>
+        <v>11.75341004709547</v>
       </c>
       <c r="N14">
-        <v>21.85096363981952</v>
+        <v>13.56708220881546</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.73242149400155</v>
+        <v>17.3967158985302</v>
       </c>
       <c r="C15">
-        <v>8.06192609721136</v>
+        <v>7.089575092939107</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.92309130939119</v>
+        <v>7.433251173075961</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>45.6517664439275</v>
+        <v>36.31736328784991</v>
       </c>
       <c r="H15">
-        <v>18.43872924869184</v>
+        <v>11.8467188567196</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.8832577046442</v>
+        <v>13.54467533922044</v>
       </c>
       <c r="L15">
-        <v>9.998695956737915</v>
+        <v>6.609310234290246</v>
       </c>
       <c r="M15">
-        <v>15.48706166598218</v>
+        <v>11.71504484986779</v>
       </c>
       <c r="N15">
-        <v>21.85836561927105</v>
+        <v>13.595872422003</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.60249384236804</v>
+        <v>16.87974592223236</v>
       </c>
       <c r="C16">
-        <v>8.034855494473273</v>
+        <v>6.997884724417328</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.93275292990493</v>
+        <v>7.408567648469425</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>45.66163008479305</v>
+        <v>35.92860484508908</v>
       </c>
       <c r="H16">
-        <v>18.46522304077382</v>
+        <v>11.85133922294859</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.79095979800996</v>
+        <v>13.10572627831161</v>
       </c>
       <c r="L16">
-        <v>9.999083793175476</v>
+        <v>6.539941148381848</v>
       </c>
       <c r="M16">
-        <v>15.46449858329707</v>
+        <v>11.49475249743699</v>
       </c>
       <c r="N16">
-        <v>21.90135566521829</v>
+        <v>13.76155752467788</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.52311720419057</v>
+        <v>16.55721844603925</v>
       </c>
       <c r="C17">
-        <v>8.018086711976963</v>
+        <v>6.941237908631575</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.93905614759723</v>
+        <v>7.394360586356524</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>45.67075584427413</v>
+        <v>35.70052102038333</v>
       </c>
       <c r="H17">
-        <v>18.48223300249341</v>
+        <v>11.85679342927506</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.73459992833081</v>
+        <v>12.83033111397013</v>
       </c>
       <c r="L17">
-        <v>9.999676781794077</v>
+        <v>6.497963211147016</v>
       </c>
       <c r="M17">
-        <v>15.45129326054816</v>
+        <v>11.35926683099937</v>
       </c>
       <c r="N17">
-        <v>21.92824027991178</v>
+        <v>13.86384855023347</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.47759834331697</v>
+        <v>16.36974608371706</v>
       </c>
       <c r="C18">
-        <v>8.008382886495582</v>
+        <v>6.908510184567154</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.94281994252124</v>
+        <v>7.386528394259543</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>45.67713352342005</v>
+        <v>35.57309714355947</v>
       </c>
       <c r="H18">
-        <v>18.49229467680406</v>
+        <v>11.86086418923628</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.70228992730211</v>
+        <v>12.66966686267202</v>
       </c>
       <c r="L18">
-        <v>10.00014858975756</v>
+        <v>6.474033419440832</v>
       </c>
       <c r="M18">
-        <v>15.44393336610713</v>
+        <v>11.28123229197624</v>
       </c>
       <c r="N18">
-        <v>21.94389199191644</v>
+        <v>13.92293135088004</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.46221133353774</v>
+        <v>16.30593570221744</v>
       </c>
       <c r="C19">
-        <v>8.005087285888756</v>
+        <v>6.897404112847592</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.94411807235699</v>
+        <v>7.383934407242447</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>45.67948664178802</v>
+        <v>35.53059417562118</v>
       </c>
       <c r="H19">
-        <v>18.49574911765391</v>
+        <v>11.86240011597777</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.69136963535823</v>
+        <v>12.61487822219426</v>
       </c>
       <c r="L19">
-        <v>10.00033081304449</v>
+        <v>6.465968337093181</v>
       </c>
       <c r="M19">
-        <v>15.44148201884819</v>
+        <v>11.25479474080242</v>
       </c>
       <c r="N19">
-        <v>21.94922378516851</v>
+        <v>13.94297919137198</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.53155320283916</v>
+        <v>16.59175560627057</v>
       </c>
       <c r="C20">
-        <v>8.019877883665607</v>
+        <v>6.947283175584142</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.9383708433151</v>
+        <v>7.395837732192725</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>45.66966753801627</v>
+        <v>35.72440999268584</v>
       </c>
       <c r="H20">
-        <v>18.48039348809927</v>
+        <v>11.85611554238245</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.74058872498068</v>
+        <v>12.85988135604848</v>
       </c>
       <c r="L20">
-        <v>9.999600131936106</v>
+        <v>6.502409659414224</v>
       </c>
       <c r="M20">
-        <v>15.4526746557299</v>
+        <v>11.3737010167626</v>
       </c>
       <c r="N20">
-        <v>21.92535887733739</v>
+        <v>13.85293406792237</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.76605577934936</v>
+        <v>17.52851300003874</v>
       </c>
       <c r="C21">
-        <v>8.068864660942422</v>
+        <v>7.113124858923261</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.92071304762772</v>
+        <v>7.439916819868538</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>45.65017126954544</v>
+        <v>36.42099870784581</v>
       </c>
       <c r="H21">
-        <v>18.43212319452939</v>
+        <v>11.84636003075053</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.90715967099558</v>
+        <v>13.65612760529581</v>
       </c>
       <c r="L21">
-        <v>9.998705383829549</v>
+        <v>6.627396614466652</v>
       </c>
       <c r="M21">
-        <v>15.49308243385572</v>
+        <v>11.77179885219789</v>
       </c>
       <c r="N21">
-        <v>21.84742429972882</v>
+        <v>13.55328856163328</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.92020823086661</v>
+        <v>18.14804507078234</v>
       </c>
       <c r="C22">
-        <v>8.100343188280187</v>
+        <v>7.220213700972272</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.91040193432072</v>
+        <v>7.471841465711019</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>45.6475031432892</v>
+        <v>36.91103808433885</v>
       </c>
       <c r="H22">
-        <v>18.40305454602404</v>
+        <v>11.84892613802726</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.01675191721163</v>
+        <v>14.15673457631637</v>
       </c>
       <c r="L22">
-        <v>9.999279284721533</v>
+        <v>6.710944277030656</v>
       </c>
       <c r="M22">
-        <v>15.52155353614052</v>
+        <v>12.03063574035531</v>
       </c>
       <c r="N22">
-        <v>21.79815920166839</v>
+        <v>13.35945734906826</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.83786818006271</v>
+        <v>17.80733790246672</v>
       </c>
       <c r="C23">
-        <v>8.083592281998895</v>
+        <v>7.163176603013932</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.91579282665886</v>
+        <v>7.454512932244213</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>45.64800457417442</v>
+        <v>36.64625354346022</v>
       </c>
       <c r="H23">
-        <v>18.41834206747328</v>
+        <v>11.84670719042965</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.95820450196571</v>
+        <v>13.89134264507451</v>
       </c>
       <c r="L23">
-        <v>9.998867246019204</v>
+        <v>6.666185344746692</v>
       </c>
       <c r="M23">
-        <v>15.50617100558289</v>
+        <v>11.89262977428321</v>
       </c>
       <c r="N23">
-        <v>21.82430052091471</v>
+        <v>13.46273526801083</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.52773892342623</v>
+        <v>16.57614772857263</v>
       </c>
       <c r="C24">
-        <v>8.019068291771074</v>
+        <v>6.944550610938931</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.93868023330046</v>
+        <v>7.395168870174007</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>45.67015603799971</v>
+        <v>35.71359826371873</v>
       </c>
       <c r="H24">
-        <v>18.48122425283951</v>
+        <v>11.85641910939305</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.73788090083235</v>
+        <v>12.84652897150075</v>
       </c>
       <c r="L24">
-        <v>9.999634377567215</v>
+        <v>6.500398784512429</v>
       </c>
       <c r="M24">
-        <v>15.45204940386275</v>
+        <v>11.36717575916752</v>
       </c>
       <c r="N24">
-        <v>21.92666095069559</v>
+        <v>13.85786764870182</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.19862530120621</v>
+        <v>15.17344189844624</v>
       </c>
       <c r="C25">
-        <v>7.947225752049714</v>
+        <v>6.70316641835479</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.96865883064075</v>
+        <v>7.344073249513309</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>45.73718077336151</v>
+        <v>34.85060154546328</v>
       </c>
       <c r="H25">
-        <v>18.55967909661729</v>
+        <v>11.9022540838473</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.50443683217814</v>
+        <v>11.6327708448292</v>
       </c>
       <c r="L25">
-        <v>10.00546266649849</v>
+        <v>6.329816942417822</v>
       </c>
       <c r="M25">
-        <v>15.40268928638534</v>
+        <v>10.7966189020994</v>
       </c>
       <c r="N25">
-        <v>22.04428101818493</v>
+        <v>14.2936628398544</v>
       </c>
       <c r="O25">
         <v>0</v>
